--- a/实验报告/02 测试用例/自动标定/自动标定功能.xlsx
+++ b/实验报告/02 测试用例/自动标定/自动标定功能.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\软件测试课程设计-2023级\05 实验报告模板\测试用例\标定功能测试用例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documents\Study\University\20252026a\软件测试课程设计\github\实验报告\02 测试用例\自动标定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DEAE21-00FF-4498-A46D-FCB15FDB0562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CEDCED-01EC-4700-B65C-A745B8A1236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{46A138A7-270B-46AE-A94C-B74E579437DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{46A138A7-270B-46AE-A94C-B74E579437DD}"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="148">
   <si>
     <t>软件测试用例</t>
   </si>
@@ -43,9 +43,6 @@
     <t>编制人</t>
   </si>
   <si>
-    <t>王静</t>
-  </si>
-  <si>
     <t>测试环境</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>测试人员</t>
-  </si>
-  <si>
     <t>测试目的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -219,10 +213,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>无法在实际距离处输入0..01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>测试粘贴不合法字符串后系统实际距离的检查</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1119,59 +1109,68 @@
     <t>R-BD-10</t>
   </si>
   <si>
+    <t>R-BD-12</t>
+  </si>
+  <si>
+    <t>R-BD-13</t>
+  </si>
+  <si>
+    <t>R-BD-14</t>
+  </si>
+  <si>
+    <t>R-BD-15</t>
+  </si>
+  <si>
+    <t>R-BD-16</t>
+  </si>
+  <si>
+    <t>R-BD-17</t>
+  </si>
+  <si>
+    <t>R-BD-18</t>
+  </si>
+  <si>
+    <t>R-BD-19</t>
+  </si>
+  <si>
+    <t>R-BD-20</t>
+  </si>
+  <si>
+    <t>R-BD-21</t>
+  </si>
+  <si>
+    <t>R-BD-22</t>
+  </si>
+  <si>
+    <t>R-BD-23</t>
+  </si>
+  <si>
+    <t>R-BD-24</t>
+  </si>
+  <si>
+    <t>R-BD-25</t>
+  </si>
+  <si>
+    <t>C-BD-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-BD-02</t>
+  </si>
+  <si>
+    <t>UI-BD-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法在实际距离处输入0..01或提示错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提示实际测量距离输入不正确,或提示错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>R-BD-11</t>
-  </si>
-  <si>
-    <t>R-BD-12</t>
-  </si>
-  <si>
-    <t>R-BD-13</t>
-  </si>
-  <si>
-    <t>R-BD-14</t>
-  </si>
-  <si>
-    <t>R-BD-15</t>
-  </si>
-  <si>
-    <t>R-BD-16</t>
-  </si>
-  <si>
-    <t>R-BD-17</t>
-  </si>
-  <si>
-    <t>R-BD-18</t>
-  </si>
-  <si>
-    <t>R-BD-19</t>
-  </si>
-  <si>
-    <t>R-BD-20</t>
-  </si>
-  <si>
-    <t>R-BD-21</t>
-  </si>
-  <si>
-    <t>R-BD-22</t>
-  </si>
-  <si>
-    <t>R-BD-23</t>
-  </si>
-  <si>
-    <t>R-BD-24</t>
-  </si>
-  <si>
-    <t>R-BD-25</t>
-  </si>
-  <si>
-    <t>C-BD-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-BD-02</t>
-  </si>
-  <si>
-    <t>UI-BD-01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1179,7 +1178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1250,6 +1249,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1443,9 +1449,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1498,7 +1501,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1565,7 +1567,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1861,44 +1869,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5647AE-CB45-4678-96AA-4E172626ADC2}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="24.19921875" customWidth="1"/>
-    <col min="3" max="3" width="28.3984375" customWidth="1"/>
-    <col min="4" max="4" width="39.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.5" customWidth="1"/>
-    <col min="7" max="7" width="31.09765625" customWidth="1"/>
+    <col min="7" max="7" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1906,294 +1914,286 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="G5" s="4">
         <v>46034</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="40"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="5"/>
       <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="E11" s="40"/>
+      <c r="F11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="C12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="E13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="E14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="B15" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="12" t="s">
+      <c r="E17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>6</v>
+      <c r="G17" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2222,46 +2222,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F87B08-DB19-4831-AD1E-62C8028B0D8B}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView zoomScale="88" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="24.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="39.3984375" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" customWidth="1"/>
+    <col min="4" max="4" width="39.375" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="33.5" customWidth="1"/>
-    <col min="7" max="7" width="31.09765625" customWidth="1"/>
+    <col min="7" max="7" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2269,613 +2269,613 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="G5" s="4">
         <v>46034</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="40"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="5"/>
       <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="D30" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="144" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="33" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="144" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B11:B16"/>
@@ -2897,46 +2897,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C9349B-717B-4C4E-9788-94351278CD27}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="24.19921875" customWidth="1"/>
-    <col min="3" max="3" width="28.3984375" customWidth="1"/>
-    <col min="4" max="4" width="39.3984375" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="39.375" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="33.5" customWidth="1"/>
-    <col min="7" max="7" width="31.09765625" customWidth="1"/>
+    <col min="7" max="7" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2944,110 +2944,110 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="G5" s="4">
         <v>46034</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="40"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="5"/>
       <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="15" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>27</v>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="59.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3069,46 +3069,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54989EE0-8512-4F10-A7F6-B2C943D6F69F}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="24.19921875" customWidth="1"/>
-    <col min="3" max="3" width="28.3984375" customWidth="1"/>
-    <col min="4" max="4" width="39.3984375" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="39.375" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="33.5" customWidth="1"/>
-    <col min="7" max="7" width="31.09765625" customWidth="1"/>
+    <col min="7" max="7" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3116,97 +3116,97 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="G5" s="4">
         <v>46034</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="40"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="5"/>
       <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>57</v>
+    </row>
+    <row r="8" spans="1:7" ht="44.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
